--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBAC25B-D796-4BFE-AD7A-FA4F5079F6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE98F3B-375E-4633-8678-AFB7FB2539BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>-27.493470,153.006098</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -413,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,9 +441,10 @@
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +472,14 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -485,8 +507,14 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -514,8 +542,14 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -543,8 +577,14 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -572,8 +612,14 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -583,7 +629,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -593,7 +639,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -603,7 +649,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -613,7 +659,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -623,7 +669,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -633,7 +679,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -643,7 +689,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -653,7 +699,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -663,7 +709,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -673,7 +719,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE98F3B-375E-4633-8678-AFB7FB2539BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080905CF-39AB-48A8-962D-2BD33195141C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>first_attack_on_claw</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>place</t>
   </si>
   <si>
-    <t>urban</t>
-  </si>
-  <si>
     <t>bush_turkey</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>background</t>
   </si>
   <si>
-    <t>pano_bege</t>
-  </si>
-  <si>
     <t>attack_position</t>
   </si>
   <si>
@@ -97,6 +88,39 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>lateral</t>
+  </si>
+  <si>
+    <t>mud_cloth</t>
+  </si>
+  <si>
+    <t>beige_cloth</t>
+  </si>
+  <si>
+    <t>-27.474314,153.029142</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>brisbane_city_botanic_gardens</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>carapace</t>
+  </si>
+  <si>
+    <t>first_attack</t>
+  </si>
+  <si>
+    <t>claw</t>
+  </si>
+  <si>
+    <t>ibis</t>
   </si>
 </sst>
 </file>
@@ -140,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,516 +453,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="19.5546875" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45383</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45383</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45383</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>18</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>19</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>20</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>20</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="L6" s="3">
+        <v>45384</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080905CF-39AB-48A8-962D-2BD33195141C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7D9FD-8A41-44F7-9E1B-EECF852F16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>ibis</t>
+  </si>
+  <si>
+    <t>botanic_gardens_mt_coot_tha</t>
+  </si>
+  <si>
+    <t>definitive</t>
+  </si>
+  <si>
+    <t>-27.475685,152.979682</t>
+  </si>
+  <si>
+    <t>-27.475597,152.978732</t>
+  </si>
+  <si>
+    <t>-27.475384,152.978318</t>
+  </si>
+  <si>
+    <t>trial</t>
   </si>
 </sst>
 </file>
@@ -453,250 +471,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="3" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>45384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3">
+        <v>45390</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7D9FD-8A41-44F7-9E1B-EECF852F16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B6CE18-80C9-4C97-BD26-7686C29E86F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>trial</t>
+  </si>
+  <si>
+    <t>south_banks</t>
+  </si>
+  <si>
+    <t>-27.475797,153.021809</t>
+  </si>
+  <si>
+    <t>-27.471061095217745, 153.0127999012344</t>
+  </si>
+  <si>
+    <t>-27.465852,153.034098</t>
+  </si>
+  <si>
+    <t>captain_burke_park</t>
   </si>
 </sst>
 </file>
@@ -471,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -863,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -904,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -938,6 +953,170 @@
       </c>
       <c r="M11" s="3">
         <v>45390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3">
+        <v>45397</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B6CE18-80C9-4C97-BD26-7686C29E86F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA2CDDB-1D68-419C-8B51-84F425146CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>captain_burke_park</t>
+  </si>
+  <si>
+    <t>-27.465621,153.034201</t>
+  </si>
+  <si>
+    <t>-27.464701,153.035694</t>
+  </si>
+  <si>
+    <t>-27.464841,153.035266</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,6 +1128,310 @@
         <v>45397</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="3">
+        <v>45398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA2CDDB-1D68-419C-8B51-84F425146CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA08F9CD-3B78-4863-BCE1-E286E9DD66C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA08F9CD-3B78-4863-BCE1-E286E9DD66C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACBF6AA-2C95-4F89-B405-9482BC8324E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>-27.464841,153.035266</t>
+  </si>
+  <si>
+    <t>simpsons_playground_reserve</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>-27.523223,152.992964</t>
+  </si>
+  <si>
+    <t>-27.523649,152.993419</t>
+  </si>
+  <si>
+    <t>-27.523746,152.993267</t>
   </si>
 </sst>
 </file>
@@ -495,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,6 +1447,272 @@
         <v>45398</v>
       </c>
     </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="3">
+        <v>45400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACBF6AA-2C95-4F89-B405-9482BC8324E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E15D87-F4E3-48F6-B4A8-E1F30ED1EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>-27.523746,152.993267</t>
+  </si>
+  <si>
+    <t>oxley_creek_common</t>
+  </si>
+  <si>
+    <t>without_cloth</t>
+  </si>
+  <si>
+    <t>27°32'08.8"S 152°59'32.3"E</t>
+  </si>
+  <si>
+    <t>27°32'08.4"S 152°59'31.9"E</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,6 +1725,82 @@
         <v>45400</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="3">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="3">
+        <v>45401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E15D87-F4E3-48F6-B4A8-E1F30ED1EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550BC75-8BCF-444D-A021-840D4E333D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4416" yWindow="924" windowWidth="13980" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>27°32'08.4"S 152°59'31.9"E</t>
+  </si>
+  <si>
+    <t>Munro_St</t>
+  </si>
+  <si>
+    <t>-27.492764,153.005894</t>
+  </si>
+  <si>
+    <t>-27.477252,152.973800</t>
+  </si>
+  <si>
+    <t>-27.478078,152.974768</t>
+  </si>
+  <si>
+    <t>-27.477342,152.976680</t>
   </si>
 </sst>
 </file>
@@ -522,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,6 +1816,155 @@
         <v>45401</v>
       </c>
     </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="3">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="3">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="3">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="3">
+        <v>45404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550BC75-8BCF-444D-A021-840D4E333D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C116AFE9-C2E4-4AF5-9EDE-26D3B7B76857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="924" windowWidth="13980" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C116AFE9-C2E4-4AF5-9EDE-26D3B7B76857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD549399-2994-41F6-9134-80C0D2B495CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -111,15 +111,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>carapace</t>
-  </si>
-  <si>
     <t>first_attack</t>
   </si>
   <si>
-    <t>claw</t>
-  </si>
-  <si>
     <t>ibis</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>oxley_creek_common</t>
   </si>
   <si>
-    <t>without_cloth</t>
-  </si>
-  <si>
     <t>27°32'08.8"S 152°59'32.3"E</t>
   </si>
   <si>
@@ -205,6 +196,12 @@
   </si>
   <si>
     <t>-27.477342,152.976680</t>
+  </si>
+  <si>
+    <t>Carapace</t>
+  </si>
+  <si>
+    <t>Claw</t>
   </si>
 </sst>
 </file>
@@ -539,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -604,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -645,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -686,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -724,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -768,13 +765,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
@@ -792,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>19</v>
@@ -809,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -824,16 +821,16 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>20</v>
@@ -850,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -865,16 +862,16 @@
         <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>20</v>
@@ -891,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -906,16 +903,16 @@
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>20</v>
@@ -932,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -947,16 +944,16 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>20</v>
@@ -973,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -988,16 +985,16 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>20</v>
@@ -1014,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1029,16 +1026,16 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>20</v>
@@ -1055,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -1070,16 +1067,16 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>20</v>
@@ -1096,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1111,16 +1108,16 @@
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>19</v>
@@ -1137,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1152,16 +1149,16 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>19</v>
@@ -1178,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -1193,16 +1190,16 @@
         <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M16" s="3">
         <v>45398</v>
@@ -1216,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1231,16 +1228,16 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M17" s="3">
         <v>45398</v>
@@ -1254,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1269,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="3">
         <v>45398</v>
@@ -1292,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1307,16 +1304,16 @@
         <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>44</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="3">
         <v>45398</v>
@@ -1330,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1345,16 +1342,16 @@
         <v>3</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M20" s="3">
         <v>45398</v>
@@ -1368,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1383,16 +1380,16 @@
         <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M21" s="3">
         <v>45398</v>
@@ -1406,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1421,16 +1418,16 @@
         <v>3</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M22" s="3">
         <v>45398</v>
@@ -1444,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
@@ -1459,16 +1456,16 @@
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M23" s="3">
         <v>45398</v>
@@ -1482,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
@@ -1497,16 +1494,16 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M24" s="3">
         <v>45400</v>
@@ -1520,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1535,16 +1532,16 @@
         <v>3</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M25" s="3">
         <v>45400</v>
@@ -1558,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1573,16 +1570,16 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M26" s="3">
         <v>45400</v>
@@ -1596,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1611,16 +1608,16 @@
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="3">
         <v>45400</v>
@@ -1634,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1649,16 +1646,16 @@
         <v>3</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M28" s="3">
         <v>45400</v>
@@ -1672,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -1687,16 +1684,16 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M29" s="3">
         <v>45400</v>
@@ -1710,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -1722,19 +1719,19 @@
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>48</v>
-      </c>
       <c r="K30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M30" s="3">
         <v>45400</v>
@@ -1748,7 +1745,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
@@ -1760,19 +1757,19 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M31" s="3">
         <v>45401</v>
@@ -1786,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>21</v>
@@ -1798,19 +1795,19 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" t="s">
-        <v>54</v>
-      </c>
       <c r="K32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M32" s="3">
         <v>45401</v>
@@ -1824,7 +1821,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -1836,19 +1833,19 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M33" s="3">
         <v>45404</v>
@@ -1862,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>21</v>
@@ -1874,19 +1871,19 @@
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M34" s="3">
         <v>45404</v>
@@ -1900,7 +1897,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -1912,19 +1909,19 @@
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M35" s="3">
         <v>45404</v>
@@ -1938,28 +1935,31 @@
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M36" s="3">
         <v>45404</v>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD549399-2994-41F6-9134-80C0D2B495CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ECD1A3-5AFB-494D-A7EB-6ED468A3556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Claw</t>
+  </si>
+  <si>
+    <t>seventh_brigade_park</t>
+  </si>
+  <si>
+    <t>-27.381263,153.035628</t>
+  </si>
+  <si>
+    <t>-27.380979,153.036048</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,6 +1974,120 @@
         <v>45404</v>
       </c>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="3">
+        <v>45384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ECD1A3-5AFB-494D-A7EB-6ED468A3556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C632CD-D019-418B-B52D-1C59C77F61E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>-27.380979,153.036048</t>
+  </si>
+  <si>
+    <t>lambertia_close_park</t>
+  </si>
+  <si>
+    <t>-27.519469,153.093534</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,7 +2015,7 @@
         <v>31</v>
       </c>
       <c r="M37" s="3">
-        <v>45384</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2047,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="M38" s="3">
-        <v>45384</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2085,7 +2091,83 @@
         <v>31</v>
       </c>
       <c r="M39" s="3">
-        <v>45384</v>
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>26</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="3">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="3">
+        <v>45418</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C632CD-D019-418B-B52D-1C59C77F61E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239AE4B-5186-4ECF-A4DD-650C5A4A9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t>-27.519469,153.093534</t>
+  </si>
+  <si>
+    <t>russ_hall_park</t>
+  </si>
+  <si>
+    <t>-27.549609,153.033562</t>
+  </si>
+  <si>
+    <t>llluminant</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>direct_sunlight</t>
   </si>
 </sst>
 </file>
@@ -549,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,14 +575,14 @@
     <col min="3" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="8" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,22 +608,25 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -634,22 +652,25 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -675,22 +696,25 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -716,22 +740,25 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -757,22 +784,25 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -798,22 +828,25 @@
         <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>45384</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -839,22 +872,25 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -880,22 +916,25 @@
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -921,22 +960,25 @@
         <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -962,22 +1004,25 @@
         <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1003,22 +1048,25 @@
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1044,22 +1092,25 @@
         <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1085,22 +1136,25 @@
         <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1126,22 +1180,25 @@
         <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1167,22 +1224,25 @@
         <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1208,19 +1268,22 @@
         <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1246,19 +1309,22 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1284,19 +1350,22 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1322,19 +1391,22 @@
         <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1360,19 +1432,22 @@
         <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1398,19 +1473,22 @@
         <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1436,19 +1514,22 @@
         <v>40</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1474,19 +1555,22 @@
         <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1512,19 +1596,22 @@
         <v>44</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1550,19 +1637,22 @@
         <v>44</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="L25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1588,19 +1678,22 @@
         <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="L26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1626,19 +1719,22 @@
         <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="L27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1664,19 +1760,22 @@
         <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="L28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1702,19 +1801,22 @@
         <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1740,19 +1842,22 @@
         <v>44</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="3">
+      <c r="L30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1778,19 +1883,22 @@
         <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="L31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1816,19 +1924,22 @@
         <v>49</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="L32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1854,19 +1965,22 @@
         <v>52</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="L33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1892,19 +2006,22 @@
         <v>30</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="3">
+      <c r="L34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1930,19 +2047,22 @@
         <v>30</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="L35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1968,19 +2088,22 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
         <v>56</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="3">
+      <c r="L36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2006,19 +2129,22 @@
         <v>59</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
         <v>60</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="3">
+      <c r="L37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2044,19 +2170,22 @@
         <v>59</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="3">
+      <c r="L38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2082,19 +2211,22 @@
         <v>59</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="3">
+      <c r="L39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2120,19 +2252,22 @@
         <v>62</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
         <v>63</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="L40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="3">
         <v>45418</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2158,16 +2293,60 @@
         <v>62</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
         <v>63</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="L41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="3">
         <v>45418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="3">
+        <v>45420</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239AE4B-5186-4ECF-A4DD-650C5A4A9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D506780-6778-4CC2-855D-5B2061CAE8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -177,12 +177,6 @@
     <t>oxley_creek_common</t>
   </si>
   <si>
-    <t>27°32'08.8"S 152°59'32.3"E</t>
-  </si>
-  <si>
-    <t>27°32'08.4"S 152°59'31.9"E</t>
-  </si>
-  <si>
     <t>Munro_St</t>
   </si>
   <si>
@@ -232,6 +226,18 @@
   </si>
   <si>
     <t>direct_sunlight</t>
+  </si>
+  <si>
+    <t>banks_street_reserve</t>
+  </si>
+  <si>
+    <t>-27.535778, 152.992306</t>
+  </si>
+  <si>
+    <t>-27.535667, 152.992194</t>
+  </si>
+  <si>
+    <t>-27.437050,152.998649</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -634,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -652,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -678,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -696,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -722,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -740,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>23</v>
@@ -766,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -784,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
@@ -810,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -828,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>22</v>
@@ -854,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -872,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>22</v>
@@ -898,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -916,7 +922,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>22</v>
@@ -942,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -960,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>22</v>
@@ -986,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1004,7 +1010,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>22</v>
@@ -1030,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -1048,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>22</v>
@@ -1074,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1092,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
@@ -1118,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -1136,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>22</v>
@@ -1162,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1180,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>22</v>
@@ -1206,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1224,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>22</v>
@@ -1250,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -1268,7 +1274,7 @@
         <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>22</v>
@@ -1291,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1309,7 +1315,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>22</v>
@@ -1332,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1350,7 +1356,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>22</v>
@@ -1373,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1391,7 +1397,7 @@
         <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>22</v>
@@ -1414,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1432,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>22</v>
@@ -1455,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1473,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>22</v>
@@ -1496,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1514,7 +1520,7 @@
         <v>40</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>22</v>
@@ -1537,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
@@ -1555,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>22</v>
@@ -1578,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
@@ -1596,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>22</v>
@@ -1619,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1637,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>22</v>
@@ -1660,7 +1666,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1678,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>22</v>
@@ -1701,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1719,7 +1725,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>22</v>
@@ -1742,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1760,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>22</v>
@@ -1783,7 +1789,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -1801,7 +1807,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>22</v>
@@ -1824,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -1842,7 +1848,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>22</v>
@@ -1865,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
@@ -1883,13 +1889,13 @@
         <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>31</v>
@@ -1906,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>21</v>
@@ -1924,13 +1930,13 @@
         <v>49</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>31</v>
@@ -1947,7 +1953,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -1962,16 +1968,16 @@
         <v>45</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>31</v>
@@ -1988,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>21</v>
@@ -2006,13 +2012,13 @@
         <v>30</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>31</v>
@@ -2029,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2047,13 +2053,13 @@
         <v>30</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>31</v>
@@ -2070,7 +2076,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -2088,13 +2094,13 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>31</v>
@@ -2111,7 +2117,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
@@ -2126,16 +2132,16 @@
         <v>45</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>31</v>
@@ -2152,7 +2158,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>21</v>
@@ -2167,16 +2173,16 @@
         <v>45</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
         <v>59</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
-        <v>61</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>31</v>
@@ -2193,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -2208,16 +2214,16 @@
         <v>45</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
         <v>59</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" t="s">
-        <v>61</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>31</v>
@@ -2234,7 +2240,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -2249,16 +2255,16 @@
         <v>45</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>31</v>
@@ -2275,7 +2281,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -2290,16 +2296,16 @@
         <v>45</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>31</v>
@@ -2316,7 +2322,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>12</v>
@@ -2331,22 +2337,63 @@
         <v>45</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="3">
         <v>45420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="3">
+        <v>45426</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D506780-6778-4CC2-855D-5B2061CAE8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B0AAF-A753-4BF4-98A0-5687365D5F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>-27.437050,152.998649</t>
+  </si>
+  <si>
+    <t>-27.496427,153.011575</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2396,6 +2399,47 @@
         <v>45426</v>
       </c>
     </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="3">
+        <v>45433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B0AAF-A753-4BF4-98A0-5687365D5F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DD5EC7-5B4D-43DA-BD2B-0F9B09BCC3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>-27.496427,153.011575</t>
+  </si>
+  <si>
+    <t>-27.464749,153.035661</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2440,6 +2443,301 @@
         <v>45433</v>
       </c>
     </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>30</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>30</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="3">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DD5EC7-5B4D-43DA-BD2B-0F9B09BCC3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648D399-2ED1-4EB0-88EA-176D3C6A382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>-27.549609,153.033562</t>
   </si>
   <si>
-    <t>llluminant</t>
-  </si>
-  <si>
     <t>shade</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>-27.464749,153.035661</t>
+  </si>
+  <si>
+    <t>illuminant</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D26" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -708,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>23</v>
@@ -796,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
@@ -840,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>22</v>
@@ -884,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>22</v>
@@ -928,7 +928,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>22</v>
@@ -972,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>22</v>
@@ -1016,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>22</v>
@@ -1060,7 +1060,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>22</v>
@@ -1104,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
@@ -1148,7 +1148,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>22</v>
@@ -1192,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>22</v>
@@ -1236,7 +1236,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>22</v>
@@ -1280,7 +1280,7 @@
         <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>22</v>
@@ -1321,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>22</v>
@@ -1362,7 +1362,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>22</v>
@@ -1403,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>22</v>
@@ -1444,7 +1444,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>22</v>
@@ -1485,7 +1485,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>22</v>
@@ -1526,7 +1526,7 @@
         <v>40</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>22</v>
@@ -1567,7 +1567,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>22</v>
@@ -1608,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>22</v>
@@ -1649,7 +1649,7 @@
         <v>44</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>22</v>
@@ -1690,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>22</v>
@@ -1731,7 +1731,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>22</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>22</v>
@@ -1813,7 +1813,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>22</v>
@@ -1854,7 +1854,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>22</v>
@@ -1895,13 +1895,13 @@
         <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>31</v>
@@ -1936,13 +1936,13 @@
         <v>49</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>31</v>
@@ -1977,7 +1977,7 @@
         <v>50</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>22</v>
@@ -2018,7 +2018,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>22</v>
@@ -2059,7 +2059,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>22</v>
@@ -2100,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>22</v>
@@ -2141,7 +2141,7 @@
         <v>57</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>22</v>
@@ -2182,7 +2182,7 @@
         <v>57</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>22</v>
@@ -2223,7 +2223,7 @@
         <v>57</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>22</v>
@@ -2264,7 +2264,7 @@
         <v>60</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>22</v>
@@ -2305,7 +2305,7 @@
         <v>60</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>22</v>
@@ -2346,7 +2346,7 @@
         <v>62</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>22</v>
@@ -2384,16 +2384,16 @@
         <v>45</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>31</v>
@@ -2428,13 +2428,13 @@
         <v>25</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>31</v>
@@ -2469,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>31</v>
@@ -2510,13 +2510,13 @@
         <v>40</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>31</v>
@@ -2551,13 +2551,13 @@
         <v>40</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>31</v>
@@ -2592,13 +2592,13 @@
         <v>40</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>31</v>
@@ -2633,13 +2633,13 @@
         <v>40</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>31</v>
@@ -2674,13 +2674,13 @@
         <v>40</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>31</v>
@@ -2715,13 +2715,13 @@
         <v>40</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>31</v>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648D399-2ED1-4EB0-88EA-176D3C6A382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397C6CAF-F4AA-4AB9-B8B3-AB181ED2E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>illuminant</t>
+  </si>
+  <si>
+    <t>-27.477662,152.979190</t>
+  </si>
+  <si>
+    <t>-27.477292,152.979743</t>
+  </si>
+  <si>
+    <t>-27.477258,152.980125</t>
   </si>
 </sst>
 </file>
@@ -576,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D26" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2731,12 +2740,312 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>31</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="3">
+        <v>45438</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="3">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="3">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>33</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="3">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>33</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="3">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>33</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="3">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>33</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="3">
+        <v>45438</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397C6CAF-F4AA-4AB9-B8B3-AB181ED2E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A986D-B973-4052-B81A-28ACA826A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -253,13 +253,34 @@
   </si>
   <si>
     <t>-27.477258,152.980125</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>attack_position2</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>captain_burke_park_south</t>
+  </si>
+  <si>
+    <t>-27.464930, 153.034856</t>
+  </si>
+  <si>
+    <t>-27.465147,153.034666</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +292,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,25 +612,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="3" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,37 +644,40 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -661,37 +691,40 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -705,37 +738,40 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -749,37 +785,40 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -793,37 +832,40 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -837,37 +879,40 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>45384</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -881,37 +926,40 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -925,37 +973,40 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -969,37 +1020,40 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1013,37 +1067,40 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1057,37 +1114,40 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1101,37 +1161,40 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1145,37 +1208,40 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1189,37 +1255,40 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1233,37 +1302,40 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1277,34 +1349,37 @@
         <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="M16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1318,34 +1393,37 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="M17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1359,34 +1437,37 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="M18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1400,34 +1481,37 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="M19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1441,34 +1525,37 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1482,34 +1569,37 @@
         <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="M21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1523,34 +1613,37 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1564,34 +1657,37 @@
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1605,34 +1701,37 @@
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1646,34 +1745,37 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="M25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1687,34 +1789,37 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="M26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1728,34 +1833,37 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1769,34 +1877,37 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="M28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1810,34 +1921,37 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1851,34 +1965,37 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="M30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1892,34 +2009,37 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="M31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1933,34 +2053,37 @@
         <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="M32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1974,34 +2097,37 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="M33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2015,34 +2141,37 @@
         <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="3">
+      <c r="M34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2056,34 +2185,37 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="M35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2097,34 +2229,37 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="M36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2138,34 +2273,37 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="M37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2179,34 +2317,37 @@
         <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="3">
+      <c r="M38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2220,34 +2361,37 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="M39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2261,34 +2405,37 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="3">
+      <c r="M40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="3">
         <v>45418</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2302,34 +2449,37 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
         <v>61</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="M41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="3">
         <v>45418</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2343,34 +2493,37 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="3">
         <v>45420</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2384,34 +2537,37 @@
         <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="3">
         <v>45426</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2425,34 +2581,37 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" t="s">
         <v>70</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="3">
         <v>45433</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2466,34 +2625,37 @@
         <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
         <v>71</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="M45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2507,34 +2669,37 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
         <v>71</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="M46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2548,34 +2713,37 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
         <v>71</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2589,34 +2757,37 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
         <v>71</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="M48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2630,34 +2801,37 @@
         <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
         <v>71</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="M49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2671,34 +2845,37 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
         <v>71</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N50" s="3">
+      <c r="M50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2712,34 +2889,37 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
         <v>71</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" s="3">
+      <c r="M51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2753,37 +2933,40 @@
         <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2797,37 +2980,40 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
         <v>74</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N53" s="3">
+      <c r="O53" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2841,37 +3027,40 @@
         <v>21</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
         <v>74</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2885,37 +3074,40 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
         <v>75</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N55" s="3">
+      <c r="O55" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2929,37 +3121,40 @@
         <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="3">
+      <c r="O56" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2973,37 +3168,40 @@
         <v>21</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
         <v>75</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3017,37 +3215,877 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45438</v>
       </c>
     </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>34</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>34</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>34</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>81</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>34</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>81</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>34</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>81</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>34</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>34</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>34</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>81</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>35</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>35</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>35</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>36</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>82</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>36</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>82</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>36</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>82</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>36</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>82</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>36</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>82</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="3">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>36</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>82</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="3">
+        <v>45443</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A986D-B973-4052-B81A-28ACA826A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710628C4-ECFA-489C-978D-38B69DCEA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="1140" windowWidth="17628" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>-27.465147,153.034666</t>
+  </si>
+  <si>
+    <t>-27.476785,152.978979</t>
+  </si>
+  <si>
+    <t>-27.477484,152.978106</t>
+  </si>
+  <si>
+    <t>-27.476308,152.974785</t>
+  </si>
+  <si>
+    <t>-27.476971,152.980223</t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4084,6 +4096,358 @@
         <v>45443</v>
       </c>
     </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>37</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>83</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>37</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>83</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>38</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>84</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>38</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>84</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>39</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>85</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O82" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>39</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" t="s">
+        <v>85</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>40</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" t="s">
+        <v>84</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84" s="3">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>41</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>86</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" s="3">
+        <v>45445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710628C4-ECFA-489C-978D-38B69DCEA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF7A95-2B47-4AB4-8CE9-D089F7802987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="1140" windowWidth="17628" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>-27.476971,152.980223</t>
+  </si>
+  <si>
+    <t>-27.523046,152.993109</t>
+  </si>
+  <si>
+    <t>-27.523759,152.991854</t>
+  </si>
+  <si>
+    <t>-27.523727,152.993198</t>
   </si>
 </sst>
 </file>
@@ -624,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4448,6 +4457,358 @@
         <v>45445</v>
       </c>
     </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>87</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" t="s">
+        <v>87</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O88" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>87</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O89" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>87</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O90" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
+        <v>89</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O91" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>89</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" s="3">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>46</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
+        <v>88</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O93" s="3">
+        <v>45446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF7A95-2B47-4AB4-8CE9-D089F7802987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D94AEC-4781-46A8-9C4D-F5B155AF62CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1140" windowWidth="17628" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>64</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>64</v>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>64</v>
@@ -1426,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>64</v>
@@ -1690,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>64</v>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D94AEC-4781-46A8-9C4D-F5B155AF62CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891E598-18AE-4847-A640-D4073F2DDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>-27.523727,152.993198</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>-27.464707,153.035232</t>
+  </si>
+  <si>
+    <t>-27.476608,152.980305</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4809,6 +4818,141 @@
         <v>45446</v>
       </c>
     </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>47</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" t="s">
+        <v>91</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O94" s="3">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>47</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s">
+        <v>91</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O95" s="3">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>48</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" t="s">
+        <v>92</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O96" s="3">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891E598-18AE-4847-A640-D4073F2DDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19BE5F-3063-4EF5-B666-C0053F2AC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19BE5F-3063-4EF5-B666-C0053F2AC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292CC4BC-81E5-41E4-A6BA-39D7E8CC3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>-27.476608,152.980305</t>
+  </si>
+  <si>
+    <t>-27.493655,153.013470</t>
+  </si>
+  <si>
+    <t>-27.495984,153.011353</t>
+  </si>
+  <si>
+    <t>-27.497436,153.015058</t>
+  </si>
+  <si>
+    <t>-27.498809,153.012657</t>
   </si>
 </sst>
 </file>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,8 +4962,225 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>49</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" t="s">
+        <v>96</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O97" s="3">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>50</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" t="s">
+        <v>93</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O98" s="3">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>51</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" t="s">
+        <v>95</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O99" s="3">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>51</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" t="s">
+        <v>95</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O100" s="3">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>42</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" t="s">
+        <v>94</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O101" s="3">
+        <v>45465</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292CC4BC-81E5-41E4-A6BA-39D7E8CC3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AA7D2C-F175-4182-AFB1-9AE69063C1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5143,7 +5143,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>56</v>

--- a/projeto_deflection/data/raw/data_deflection.xlsx
+++ b/projeto_deflection/data/raw/data_deflection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Silva\Documents\GitHub\tese_cap4\projeto_deflection\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AA7D2C-F175-4182-AFB1-9AE69063C1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9888C1-DB44-4459-9C44-F23EF91F0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -78,16 +78,7 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>video</t>
-  </si>
-  <si>
     <t>pilot</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>lateral</t>
@@ -654,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,24 +660,24 @@
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -701,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -713,13 +704,10 @@
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -727,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -745,28 +733,25 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="3">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -774,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -792,28 +777,25 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="3">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -821,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -839,28 +821,25 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="3">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -868,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -886,28 +865,25 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -915,16 +891,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
@@ -933,28 +909,25 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="3">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3">
         <v>45384</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -962,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -980,28 +953,25 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="3">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1009,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1027,28 +997,25 @@
         <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="3">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1056,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -1074,28 +1041,25 @@
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="3">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1103,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1121,28 +1085,25 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="3">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1150,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -1168,28 +1129,25 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="3">
+        <v>28</v>
+      </c>
+      <c r="N11" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1197,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>7</v>
@@ -1215,28 +1173,25 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="3">
+        <v>28</v>
+      </c>
+      <c r="N12" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1244,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -1262,28 +1217,25 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="3">
+        <v>28</v>
+      </c>
+      <c r="N13" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1291,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1309,28 +1261,25 @@
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="3">
+        <v>28</v>
+      </c>
+      <c r="N14" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1338,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1356,28 +1305,25 @@
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="3">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1385,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
@@ -1403,25 +1349,25 @@
         <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="3">
+        <v>28</v>
+      </c>
+      <c r="N16" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1429,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -1447,25 +1393,25 @@
         <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="3">
+        <v>28</v>
+      </c>
+      <c r="N17" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1473,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1491,25 +1437,25 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="3">
+        <v>28</v>
+      </c>
+      <c r="N18" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1517,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1535,25 +1481,25 @@
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="3">
+        <v>28</v>
+      </c>
+      <c r="N19" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1561,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1579,25 +1525,25 @@
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
-        <v>43</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="3">
+        <v>28</v>
+      </c>
+      <c r="N20" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1605,13 +1551,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
@@ -1623,25 +1569,25 @@
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="3">
+        <v>28</v>
+      </c>
+      <c r="N21" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1649,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1667,25 +1613,25 @@
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>43</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" s="3">
+        <v>28</v>
+      </c>
+      <c r="N22" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1693,13 +1639,13 @@
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>7</v>
@@ -1711,25 +1657,25 @@
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="3">
+        <v>28</v>
+      </c>
+      <c r="N23" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1737,13 +1683,13 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>7</v>
@@ -1755,25 +1701,25 @@
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="3">
+        <v>28</v>
+      </c>
+      <c r="N24" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1781,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -1799,25 +1745,25 @@
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>47</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="3">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1825,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1843,25 +1789,25 @@
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>47</v>
-      </c>
       <c r="M26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="3">
+        <v>28</v>
+      </c>
+      <c r="N26" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1869,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1887,25 +1833,25 @@
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="s">
-        <v>47</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="3">
+        <v>28</v>
+      </c>
+      <c r="N27" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1913,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1931,25 +1877,25 @@
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="3">
+        <v>28</v>
+      </c>
+      <c r="N28" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1957,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -1975,25 +1921,25 @@
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="3">
+        <v>28</v>
+      </c>
+      <c r="N29" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2001,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -2016,28 +1962,28 @@
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="3">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2045,7 +1991,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
@@ -2060,28 +2006,28 @@
         <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="s">
-        <v>67</v>
-      </c>
       <c r="M31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="3">
+        <v>28</v>
+      </c>
+      <c r="N31" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2089,13 +2035,13 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>7</v>
@@ -2104,28 +2050,28 @@
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="3">
+        <v>28</v>
+      </c>
+      <c r="N32" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2133,7 +2079,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -2148,28 +2094,28 @@
         <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="3">
+        <v>28</v>
+      </c>
+      <c r="N33" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2177,13 +2123,13 @@
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>7</v>
@@ -2192,28 +2138,28 @@
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O34" s="3">
+        <v>28</v>
+      </c>
+      <c r="N34" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2221,7 +2167,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2236,28 +2182,28 @@
         <v>2</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="3">
+        <v>28</v>
+      </c>
+      <c r="N35" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2265,7 +2211,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -2274,34 +2220,34 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="3">
+        <v>28</v>
+      </c>
+      <c r="N36" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2309,7 +2255,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
@@ -2324,28 +2270,28 @@
         <v>2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="3">
+        <v>28</v>
+      </c>
+      <c r="N37" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2353,13 +2299,13 @@
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>7</v>
@@ -2368,28 +2314,28 @@
         <v>2</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="3">
+        <v>28</v>
+      </c>
+      <c r="N38" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2397,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -2412,28 +2358,28 @@
         <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="3">
+        <v>28</v>
+      </c>
+      <c r="N39" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2441,7 +2387,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -2456,28 +2402,28 @@
         <v>2</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" s="3">
+        <v>28</v>
+      </c>
+      <c r="N40" s="3">
         <v>45418</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2485,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -2500,28 +2446,28 @@
         <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="3">
+        <v>28</v>
+      </c>
+      <c r="N41" s="3">
         <v>45418</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2529,7 +2475,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>12</v>
@@ -2544,28 +2490,28 @@
         <v>2</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="3">
+        <v>28</v>
+      </c>
+      <c r="N42" s="3">
         <v>45420</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2573,13 +2519,13 @@
         <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>7</v>
@@ -2588,28 +2534,28 @@
         <v>2</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="s">
         <v>66</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" t="s">
-        <v>69</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="3">
+        <v>28</v>
+      </c>
+      <c r="N43" s="3">
         <v>45426</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2617,7 +2563,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
@@ -2632,28 +2578,28 @@
         <v>2</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="3">
+        <v>28</v>
+      </c>
+      <c r="N44" s="3">
         <v>45433</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2661,13 +2607,13 @@
         <v>30</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>7</v>
@@ -2676,28 +2622,28 @@
         <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="3">
+        <v>28</v>
+      </c>
+      <c r="N45" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2705,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -2720,28 +2666,28 @@
         <v>2</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" s="3">
+        <v>28</v>
+      </c>
+      <c r="N46" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2749,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
@@ -2764,28 +2710,28 @@
         <v>2</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="3">
+        <v>28</v>
+      </c>
+      <c r="N47" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2793,7 +2739,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
@@ -2808,28 +2754,28 @@
         <v>2</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="3">
+        <v>28</v>
+      </c>
+      <c r="N48" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2837,13 +2783,13 @@
         <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>7</v>
@@ -2852,28 +2798,28 @@
         <v>2</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="3">
+        <v>28</v>
+      </c>
+      <c r="N49" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2881,7 +2827,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -2896,28 +2842,28 @@
         <v>2</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="3">
+        <v>28</v>
+      </c>
+      <c r="N50" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2925,7 +2871,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -2940,28 +2886,28 @@
         <v>2</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="3">
+        <v>28</v>
+      </c>
+      <c r="N51" s="3">
         <v>45434</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2969,13 +2915,13 @@
         <v>31</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>7</v>
@@ -2984,31 +2930,28 @@
         <v>2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O52" s="3">
+        <v>28</v>
+      </c>
+      <c r="N52" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3016,7 +2959,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -3031,31 +2974,28 @@
         <v>2</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" s="3">
+        <v>28</v>
+      </c>
+      <c r="N53" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3063,13 +3003,13 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>7</v>
@@ -3078,31 +3018,28 @@
         <v>2</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="3">
+        <v>28</v>
+      </c>
+      <c r="N54" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3110,7 +3047,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -3125,31 +3062,28 @@
         <v>2</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O55" s="3">
+        <v>28</v>
+      </c>
+      <c r="N55" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3157,13 +3091,13 @@
         <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>7</v>
@@ -3172,31 +3106,28 @@
         <v>2</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O56" s="3">
+        <v>28</v>
+      </c>
+      <c r="N56" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3204,13 +3135,13 @@
         <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>7</v>
@@ -3219,31 +3150,28 @@
         <v>2</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O57" s="3">
+        <v>28</v>
+      </c>
+      <c r="N57" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3251,7 +3179,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
@@ -3266,31 +3194,28 @@
         <v>2</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O58" s="3">
+        <v>28</v>
+      </c>
+      <c r="N58" s="3">
         <v>45438</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3298,7 +3223,7 @@
         <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -3313,28 +3238,28 @@
         <v>2</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O59" s="3">
+        <v>28</v>
+      </c>
+      <c r="N59" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3342,43 +3267,43 @@
         <v>34</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" t="s">
-        <v>81</v>
-      </c>
       <c r="M60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O60" s="3">
+        <v>28</v>
+      </c>
+      <c r="N60" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3386,7 +3311,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -3401,28 +3326,28 @@
         <v>2</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L61" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" s="3">
+        <v>28</v>
+      </c>
+      <c r="N61" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3430,43 +3355,43 @@
         <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" t="s">
-        <v>81</v>
-      </c>
       <c r="M62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" s="3">
+        <v>28</v>
+      </c>
+      <c r="N62" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3474,13 +3399,13 @@
         <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>7</v>
@@ -3492,25 +3417,25 @@
         <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O63" s="3">
+        <v>28</v>
+      </c>
+      <c r="N63" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3518,43 +3443,43 @@
         <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" t="s">
-        <v>81</v>
-      </c>
       <c r="M64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O64" s="3">
+        <v>28</v>
+      </c>
+      <c r="N64" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3562,43 +3487,43 @@
         <v>34</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" t="s">
-        <v>81</v>
-      </c>
       <c r="M65" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O65" s="3">
+        <v>28</v>
+      </c>
+      <c r="N65" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3606,7 +3531,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>12</v>
@@ -3621,28 +3546,28 @@
         <v>2</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" s="3">
+        <v>28</v>
+      </c>
+      <c r="N66" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3650,13 +3575,13 @@
         <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>7</v>
@@ -3668,25 +3593,25 @@
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" s="3">
+        <v>28</v>
+      </c>
+      <c r="N67" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3694,7 +3619,7 @@
         <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
@@ -3712,25 +3637,25 @@
         <v>3</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" s="3">
+        <v>28</v>
+      </c>
+      <c r="N68" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3738,7 +3663,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>11</v>
@@ -3753,28 +3678,28 @@
         <v>2</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" s="3">
+        <v>28</v>
+      </c>
+      <c r="N69" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3782,13 +3707,13 @@
         <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>7</v>
@@ -3797,28 +3722,28 @@
         <v>2</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O70" s="3">
+        <v>28</v>
+      </c>
+      <c r="N70" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3826,7 +3751,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
@@ -3841,28 +3766,28 @@
         <v>2</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O71" s="3">
+        <v>28</v>
+      </c>
+      <c r="N71" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3870,7 +3795,7 @@
         <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
@@ -3885,28 +3810,28 @@
         <v>2</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L72" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O72" s="3">
+        <v>28</v>
+      </c>
+      <c r="N72" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3914,13 +3839,13 @@
         <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>7</v>
@@ -3932,25 +3857,25 @@
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O73" s="3">
+        <v>28</v>
+      </c>
+      <c r="N73" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3958,7 +3883,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>12</v>
@@ -3976,25 +3901,25 @@
         <v>3</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O74" s="3">
+        <v>28</v>
+      </c>
+      <c r="N74" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4002,13 +3927,13 @@
         <v>36</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>7</v>
@@ -4017,28 +3942,28 @@
         <v>2</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O75" s="3">
+        <v>28</v>
+      </c>
+      <c r="N75" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4046,7 +3971,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
@@ -4061,28 +3986,28 @@
         <v>2</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="3">
+        <v>28</v>
+      </c>
+      <c r="N76" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4090,7 +4015,7 @@
         <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
@@ -4105,28 +4030,28 @@
         <v>2</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O77" s="3">
+        <v>28</v>
+      </c>
+      <c r="N77" s="3">
         <v>45443</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4134,7 +4059,7 @@
         <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>12</v>
@@ -4149,28 +4074,28 @@
         <v>2</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O78" s="3">
+        <v>28</v>
+      </c>
+      <c r="N78" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4178,13 +4103,13 @@
         <v>37</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>7</v>
@@ -4193,28 +4118,28 @@
         <v>2</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O79" s="3">
+        <v>28</v>
+      </c>
+      <c r="N79" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4222,7 +4147,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>12</v>
@@ -4237,28 +4162,28 @@
         <v>2</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O80" s="3">
+        <v>28</v>
+      </c>
+      <c r="N80" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4266,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
@@ -4284,25 +4209,25 @@
         <v>3</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O81" s="3">
+        <v>28</v>
+      </c>
+      <c r="N81" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4310,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>12</v>
@@ -4325,28 +4250,28 @@
         <v>2</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O82" s="3">
+        <v>28</v>
+      </c>
+      <c r="N82" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4354,13 +4279,13 @@
         <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>7</v>
@@ -4369,28 +4294,28 @@
         <v>2</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O83" s="3">
+        <v>28</v>
+      </c>
+      <c r="N83" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4398,13 +4323,13 @@
         <v>40</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>7</v>
@@ -4413,28 +4338,28 @@
         <v>2</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O84" s="3">
+        <v>28</v>
+      </c>
+      <c r="N84" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4442,7 +4367,7 @@
         <v>41</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>11</v>
@@ -4460,25 +4385,25 @@
         <v>3</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O85" s="3">
+        <v>28</v>
+      </c>
+      <c r="N85" s="3">
         <v>45445</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4486,13 +4411,13 @@
         <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>7</v>
@@ -4501,28 +4426,28 @@
         <v>2</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O86" s="3">
+        <v>28</v>
+      </c>
+      <c r="N86" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4530,13 +4455,13 @@
         <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>7</v>
@@ -4545,28 +4470,28 @@
         <v>2</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O87" s="3">
+        <v>28</v>
+      </c>
+      <c r="N87" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4574,13 +4499,13 @@
         <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>7</v>
@@ -4589,28 +4514,28 @@
         <v>2</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L88" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O88" s="3">
+        <v>28</v>
+      </c>
+      <c r="N88" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4618,13 +4543,13 @@
         <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>7</v>
@@ -4636,25 +4561,25 @@
         <v>3</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O89" s="3">
+        <v>28</v>
+      </c>
+      <c r="N89" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4662,13 +4587,13 @@
         <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>7</v>
@@ -4677,28 +4602,28 @@
         <v>2</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O90" s="3">
+        <v>28</v>
+      </c>
+      <c r="N90" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4706,7 +4631,7 @@
         <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>11</v>
@@ -4721,28 +4646,28 @@
         <v>2</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O91" s="3">
+        <v>28</v>
+      </c>
+      <c r="N91" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4750,7 +4675,7 @@
         <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>12</v>
@@ -4765,28 +4690,28 @@
         <v>2</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" s="3">
+        <v>28</v>
+      </c>
+      <c r="N92" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4794,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>11</v>
@@ -4812,25 +4737,25 @@
         <v>3</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O93" s="3">
+        <v>28</v>
+      </c>
+      <c r="N93" s="3">
         <v>45446</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4838,7 +4763,7 @@
         <v>47</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>12</v>
@@ -4853,28 +4778,28 @@
         <v>2</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O94" s="3">
+        <v>28</v>
+      </c>
+      <c r="N94" s="3">
         <v>45458</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4882,13 +4807,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>7</v>
@@ -4897,28 +4822,28 @@
         <v>2</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L95" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O95" s="3">
+        <v>28</v>
+      </c>
+      <c r="N95" s="3">
         <v>45458</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4926,7 +4851,7 @@
         <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>11</v>
@@ -4941,28 +4866,28 @@
         <v>2</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L96" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O96" s="3">
+        <v>28</v>
+      </c>
+      <c r="N96" s="3">
         <v>45459</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4970,13 +4895,13 @@
         <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>7</v>
@@ -4985,28 +4910,28 @@
         <v>2</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O97" s="3">
+        <v>28</v>
+      </c>
+      <c r="N97" s="3">
         <v>45465</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5014,7 +4939,7 @@
         <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>11</v>
@@ -5029,28 +4954,28 @@
         <v>2</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L98" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O98" s="3">
+        <v>28</v>
+      </c>
+      <c r="N98" s="3">
         <v>45465</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5058,7 +4983,7 @@
         <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>12</v>
@@ -5073,28 +4998,28 @@
         <v>2</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O99" s="3">
+        <v>28</v>
+      </c>
+      <c r="N99" s="3">
         <v>45465</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5102,7 +5027,7 @@
         <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>11</v>
@@ -5117,28 +5042,28 @@
         <v>2</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L100" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O100" s="3">
+        <v>28</v>
+      </c>
+      <c r="N100" s="3">
         <v>45465</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5146,7 +5071,7 @@
         <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>11</v>
@@ -5161,24 +5086,24 @@
         <v>2</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O101" s="3">
+        <v>28</v>
+      </c>
+      <c r="N101" s="3">
         <v>45465</v>
       </c>
     </row>
